--- a/attendance-files/FBETDM/FBETDM Attendance.xlsx
+++ b/attendance-files/FBETDM/FBETDM Attendance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="116">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -116,6 +116,12 @@
     <t>Aakarsh Goyal</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>2024PGP548</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
   </si>
   <si>
     <t>Ishita Bhalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P </t>
   </si>
   <si>
     <t>2024PGP214</t>
@@ -692,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -791,11 +800,17 @@
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -1296,23 +1311,43 @@
       <c r="D7" s="33"/>
       <c r="E7" s="30">
         <f t="shared" ref="E7:E92" si="1">COUNTIF(G7:P7,"A")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:P7,"P")</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="36"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
@@ -1329,31 +1364,51 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="36"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -1370,31 +1425,51 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="36"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
@@ -1411,31 +1486,51 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="36"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
@@ -1452,31 +1547,51 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="36"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1493,31 +1608,51 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="36"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -1534,31 +1669,51 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="36"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -1575,31 +1730,51 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="36"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -1616,31 +1791,51 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="36"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -1657,31 +1852,51 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="35"/>
+        <v>9</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="36"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1698,31 +1913,51 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="36"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1739,31 +1974,51 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="36"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1780,31 +2035,51 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="36"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -1821,31 +2096,51 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="36"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -1862,31 +2157,51 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="36"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -1903,31 +2218,51 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="36"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1944,31 +2279,51 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="36"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -1985,31 +2340,51 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="36"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -2026,31 +2401,51 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="36"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -2067,31 +2462,51 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="36"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -2108,31 +2523,51 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="34"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="36"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
@@ -2149,31 +2584,51 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="36"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -2190,31 +2645,51 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="36"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
@@ -2231,31 +2706,51 @@
         <v>24.0</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="34"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="36"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
@@ -2272,31 +2767,51 @@
         <v>25.0</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="36"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
@@ -2313,31 +2828,51 @@
         <v>26.0</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="36"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -2354,31 +2889,51 @@
         <v>27.0</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="36"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
@@ -2395,31 +2950,51 @@
         <v>28.0</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="36"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -2436,31 +3011,51 @@
         <v>29.0</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="36"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -2477,31 +3072,51 @@
         <v>30.0</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="36"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
@@ -2518,31 +3133,51 @@
         <v>31.0</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="36"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
@@ -2559,31 +3194,51 @@
         <v>32.0</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="36"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
@@ -2600,31 +3255,51 @@
         <v>33.0</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="36"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
@@ -2641,31 +3316,51 @@
         <v>34.0</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="35"/>
+        <v>9</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="36"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
       <c r="T40" s="6"/>
@@ -2682,31 +3377,51 @@
         <v>35.0</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="36"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
@@ -2723,10 +3438,10 @@
         <v>36.0</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D42" s="33"/>
       <c r="E42" s="30">
@@ -2735,19 +3450,39 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="35"/>
+        <v>10</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="36"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
@@ -2764,31 +3499,51 @@
         <v>37.0</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="36"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -2805,31 +3560,51 @@
         <v>38.0</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F44" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="36"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
@@ -2846,31 +3621,51 @@
         <v>39.0</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45" s="36"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
@@ -2887,31 +3682,51 @@
         <v>40.0</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="34"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="35"/>
+        <v>8</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="36"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
@@ -2928,31 +3743,51 @@
         <v>41.0</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="35"/>
+        <v>9</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="36"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -2969,31 +3804,51 @@
         <v>42.0</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D48" s="33"/>
       <c r="E48" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="35"/>
+        <v>9</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="36"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -3010,31 +3865,51 @@
         <v>43.0</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="35"/>
+        <v>7</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="36"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -3062,16 +3937,16 @@
         <v>0</v>
       </c>
       <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="H50" s="34"/>
       <c r="I50" s="30"/>
-      <c r="J50" s="34"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="L50" s="34"/>
       <c r="M50" s="30"/>
       <c r="N50" s="30"/>
       <c r="O50" s="30"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="35"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="36"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -3099,16 +3974,16 @@
         <v>0</v>
       </c>
       <c r="G51" s="30"/>
-      <c r="H51" s="34"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="L51" s="34"/>
       <c r="M51" s="30"/>
-      <c r="N51" s="34"/>
+      <c r="N51" s="37"/>
       <c r="O51" s="30"/>
       <c r="P51" s="30"/>
-      <c r="Q51" s="35"/>
+      <c r="Q51" s="36"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -3138,14 +4013,14 @@
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
-      <c r="N52" s="34"/>
+      <c r="N52" s="37"/>
       <c r="O52" s="30"/>
       <c r="P52" s="30"/>
-      <c r="Q52" s="35"/>
+      <c r="Q52" s="36"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -3178,11 +4053,11 @@
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
-      <c r="Q53" s="35"/>
+      <c r="Q53" s="36"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -3213,13 +4088,13 @@
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
-      <c r="K54" s="34"/>
+      <c r="K54" s="37"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
-      <c r="N54" s="34"/>
+      <c r="N54" s="37"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
-      <c r="Q54" s="35"/>
+      <c r="Q54" s="36"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
@@ -3246,17 +4121,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G55" s="34"/>
+      <c r="G55" s="37"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
       <c r="K55" s="30"/>
-      <c r="L55" s="34"/>
+      <c r="L55" s="37"/>
       <c r="M55" s="30"/>
       <c r="N55" s="30"/>
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
-      <c r="Q55" s="35"/>
+      <c r="Q55" s="36"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
@@ -3283,7 +4158,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G56" s="34"/>
+      <c r="G56" s="37"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
@@ -3293,7 +4168,7 @@
       <c r="N56" s="30"/>
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
-      <c r="Q56" s="35"/>
+      <c r="Q56" s="36"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
@@ -3321,16 +4196,16 @@
         <v>0</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="34"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="30"/>
-      <c r="J57" s="34"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="30"/>
-      <c r="L57" s="34"/>
+      <c r="L57" s="37"/>
       <c r="M57" s="30"/>
       <c r="N57" s="30"/>
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
-      <c r="Q57" s="35"/>
+      <c r="Q57" s="36"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
@@ -3359,15 +4234,15 @@
       </c>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
-      <c r="I58" s="34"/>
+      <c r="I58" s="37"/>
       <c r="J58" s="30"/>
-      <c r="K58" s="34"/>
+      <c r="K58" s="37"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
       <c r="N58" s="30"/>
       <c r="O58" s="30"/>
       <c r="P58" s="30"/>
-      <c r="Q58" s="35"/>
+      <c r="Q58" s="36"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
@@ -3394,17 +4269,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G59" s="34"/>
+      <c r="G59" s="37"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
       <c r="K59" s="30"/>
       <c r="L59" s="30"/>
-      <c r="M59" s="34"/>
+      <c r="M59" s="37"/>
       <c r="N59" s="30"/>
       <c r="O59" s="30"/>
       <c r="P59" s="30"/>
-      <c r="Q59" s="35"/>
+      <c r="Q59" s="36"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
@@ -3420,8 +4295,8 @@
       <c r="A60" s="30">
         <v>54.0</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
       <c r="D60" s="33"/>
       <c r="E60" s="30">
         <f t="shared" si="1"/>
@@ -3431,17 +4306,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G60" s="34"/>
+      <c r="G60" s="37"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
-      <c r="L60" s="34"/>
+      <c r="L60" s="37"/>
       <c r="M60" s="30"/>
       <c r="N60" s="30"/>
       <c r="O60" s="30"/>
       <c r="P60" s="30"/>
-      <c r="Q60" s="35"/>
+      <c r="Q60" s="36"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
@@ -3457,8 +4332,8 @@
       <c r="A61" s="30">
         <v>55.0</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
       <c r="D61" s="33"/>
       <c r="E61" s="30">
         <f t="shared" si="1"/>
@@ -3470,15 +4345,15 @@
       </c>
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
-      <c r="I61" s="34"/>
+      <c r="I61" s="37"/>
       <c r="J61" s="30"/>
-      <c r="K61" s="34"/>
+      <c r="K61" s="37"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
       <c r="N61" s="30"/>
       <c r="O61" s="30"/>
       <c r="P61" s="30"/>
-      <c r="Q61" s="35"/>
+      <c r="Q61" s="36"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
@@ -3494,8 +4369,8 @@
       <c r="A62" s="30">
         <v>56.0</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="39"/>
       <c r="D62" s="33"/>
       <c r="E62" s="30">
         <f t="shared" si="1"/>
@@ -3505,8 +4380,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="30"/>
       <c r="J62" s="30"/>
       <c r="K62" s="30"/>
@@ -3515,7 +4390,7 @@
       <c r="N62" s="30"/>
       <c r="O62" s="30"/>
       <c r="P62" s="30"/>
-      <c r="Q62" s="35"/>
+      <c r="Q62" s="36"/>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
@@ -3531,8 +4406,8 @@
       <c r="A63" s="30">
         <v>57.0</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="33"/>
       <c r="E63" s="30">
         <f t="shared" si="1"/>
@@ -3548,11 +4423,11 @@
       <c r="J63" s="30"/>
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
-      <c r="M63" s="34"/>
+      <c r="M63" s="37"/>
       <c r="N63" s="30"/>
       <c r="O63" s="30"/>
       <c r="P63" s="30"/>
-      <c r="Q63" s="35"/>
+      <c r="Q63" s="36"/>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
@@ -3568,8 +4443,8 @@
       <c r="A64" s="30">
         <v>58.0</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
       <c r="D64" s="33"/>
       <c r="E64" s="30">
         <f t="shared" si="1"/>
@@ -3579,17 +4454,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G64" s="34"/>
+      <c r="G64" s="37"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
-      <c r="J64" s="34"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
-      <c r="Q64" s="35"/>
+      <c r="Q64" s="36"/>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
@@ -3605,8 +4480,8 @@
       <c r="A65" s="30">
         <v>59.0</v>
       </c>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="33"/>
       <c r="E65" s="30">
         <f t="shared" si="1"/>
@@ -3618,15 +4493,15 @@
       </c>
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
       <c r="N65" s="30"/>
       <c r="O65" s="30"/>
       <c r="P65" s="30"/>
-      <c r="Q65" s="35"/>
+      <c r="Q65" s="36"/>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
@@ -3642,8 +4517,8 @@
       <c r="A66" s="30">
         <v>60.0</v>
       </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
       <c r="D66" s="33"/>
       <c r="E66" s="30">
         <f t="shared" si="1"/>
@@ -3658,12 +4533,12 @@
       <c r="I66" s="30"/>
       <c r="J66" s="30"/>
       <c r="K66" s="30"/>
-      <c r="L66" s="34"/>
+      <c r="L66" s="37"/>
       <c r="M66" s="30"/>
       <c r="N66" s="30"/>
       <c r="O66" s="30"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="35"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="36"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
@@ -3679,8 +4554,8 @@
       <c r="A67" s="30">
         <v>61.0</v>
       </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="39"/>
       <c r="D67" s="33"/>
       <c r="E67" s="30">
         <f t="shared" si="1"/>
@@ -3700,7 +4575,7 @@
       <c r="N67" s="30"/>
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
-      <c r="Q67" s="35"/>
+      <c r="Q67" s="36"/>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
@@ -3716,8 +4591,8 @@
       <c r="A68" s="30">
         <v>62.0</v>
       </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="37"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="39"/>
       <c r="D68" s="33"/>
       <c r="E68" s="30">
         <f t="shared" si="1"/>
@@ -3737,7 +4612,7 @@
       <c r="N68" s="30"/>
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
-      <c r="Q68" s="35"/>
+      <c r="Q68" s="36"/>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
@@ -3753,8 +4628,8 @@
       <c r="A69" s="30">
         <v>63.0</v>
       </c>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="33"/>
       <c r="E69" s="30">
         <f t="shared" si="1"/>
@@ -3770,11 +4645,11 @@
       <c r="J69" s="30"/>
       <c r="K69" s="30"/>
       <c r="L69" s="30"/>
-      <c r="M69" s="34"/>
+      <c r="M69" s="37"/>
       <c r="N69" s="30"/>
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="35"/>
+      <c r="Q69" s="36"/>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
@@ -3790,8 +4665,8 @@
       <c r="A70" s="30">
         <v>64.0</v>
       </c>
-      <c r="B70" s="36"/>
-      <c r="C70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="33"/>
       <c r="E70" s="30">
         <f t="shared" si="1"/>
@@ -3803,7 +4678,7 @@
       </c>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
-      <c r="I70" s="34"/>
+      <c r="I70" s="37"/>
       <c r="J70" s="30"/>
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
@@ -3811,7 +4686,7 @@
       <c r="N70" s="30"/>
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
-      <c r="Q70" s="35"/>
+      <c r="Q70" s="36"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
@@ -3827,8 +4702,8 @@
       <c r="A71" s="30">
         <v>65.0</v>
       </c>
-      <c r="B71" s="36"/>
-      <c r="C71" s="37"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="33"/>
       <c r="E71" s="30">
         <f t="shared" si="1"/>
@@ -3838,17 +4713,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71" s="34"/>
+      <c r="G71" s="37"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
       <c r="J71" s="30"/>
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="34"/>
+      <c r="N71" s="37"/>
       <c r="O71" s="30"/>
       <c r="P71" s="30"/>
-      <c r="Q71" s="35"/>
+      <c r="Q71" s="36"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -3864,8 +4739,8 @@
       <c r="A72" s="30">
         <v>66.0</v>
       </c>
-      <c r="B72" s="36"/>
-      <c r="C72" s="37"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="39"/>
       <c r="D72" s="33"/>
       <c r="E72" s="30">
         <f t="shared" si="1"/>
@@ -3881,11 +4756,11 @@
       <c r="J72" s="30"/>
       <c r="K72" s="30"/>
       <c r="L72" s="30"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
       <c r="O72" s="30"/>
       <c r="P72" s="30"/>
-      <c r="Q72" s="35"/>
+      <c r="Q72" s="36"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
@@ -3901,8 +4776,8 @@
       <c r="A73" s="30">
         <v>67.0</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="37"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="39"/>
       <c r="D73" s="33"/>
       <c r="E73" s="30">
         <f t="shared" si="1"/>
@@ -3915,14 +4790,14 @@
       <c r="G73" s="30"/>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
-      <c r="J73" s="34"/>
+      <c r="J73" s="37"/>
       <c r="K73" s="30"/>
-      <c r="L73" s="34"/>
+      <c r="L73" s="37"/>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
       <c r="O73" s="30"/>
       <c r="P73" s="30"/>
-      <c r="Q73" s="35"/>
+      <c r="Q73" s="36"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
@@ -3938,8 +4813,8 @@
       <c r="A74" s="30">
         <v>68.0</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="37"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="39"/>
       <c r="D74" s="33"/>
       <c r="E74" s="30">
         <f t="shared" si="1"/>
@@ -3959,7 +4834,7 @@
       <c r="N74" s="30"/>
       <c r="O74" s="30"/>
       <c r="P74" s="30"/>
-      <c r="Q74" s="35"/>
+      <c r="Q74" s="36"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
@@ -3975,8 +4850,8 @@
       <c r="A75" s="30">
         <v>69.0</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="37"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="39"/>
       <c r="D75" s="33"/>
       <c r="E75" s="30">
         <f t="shared" si="1"/>
@@ -3990,13 +4865,13 @@
       <c r="H75" s="30"/>
       <c r="I75" s="30"/>
       <c r="J75" s="30"/>
-      <c r="K75" s="34"/>
+      <c r="K75" s="37"/>
       <c r="L75" s="30"/>
-      <c r="M75" s="34"/>
+      <c r="M75" s="37"/>
       <c r="N75" s="30"/>
       <c r="O75" s="30"/>
       <c r="P75" s="30"/>
-      <c r="Q75" s="35"/>
+      <c r="Q75" s="36"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
@@ -4012,8 +4887,8 @@
       <c r="A76" s="30">
         <v>70.0</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="33"/>
       <c r="E76" s="30">
         <f t="shared" si="1"/>
@@ -4024,16 +4899,16 @@
         <v>0</v>
       </c>
       <c r="G76" s="30"/>
-      <c r="H76" s="34"/>
+      <c r="H76" s="37"/>
       <c r="I76" s="30"/>
       <c r="J76" s="30"/>
       <c r="K76" s="30"/>
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
-      <c r="N76" s="34"/>
+      <c r="N76" s="37"/>
       <c r="O76" s="30"/>
       <c r="P76" s="30"/>
-      <c r="Q76" s="35"/>
+      <c r="Q76" s="36"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -4049,8 +4924,8 @@
       <c r="A77" s="30">
         <v>71.0</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="37"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="33"/>
       <c r="E77" s="30">
         <f t="shared" si="1"/>
@@ -4062,15 +4937,15 @@
       </c>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
       <c r="K77" s="30"/>
       <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="35"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="36"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
@@ -4086,8 +4961,8 @@
       <c r="A78" s="30">
         <v>72.0</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="37"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="39"/>
       <c r="D78" s="33"/>
       <c r="E78" s="30">
         <f t="shared" si="1"/>
@@ -4097,17 +4972,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78" s="34"/>
+      <c r="G78" s="37"/>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
       <c r="J78" s="30"/>
       <c r="K78" s="30"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
-      <c r="N78" s="34"/>
+      <c r="N78" s="37"/>
       <c r="O78" s="30"/>
       <c r="P78" s="30"/>
-      <c r="Q78" s="35"/>
+      <c r="Q78" s="36"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
@@ -4123,8 +4998,8 @@
       <c r="A79" s="30">
         <v>73.0</v>
       </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="37"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="39"/>
       <c r="D79" s="33"/>
       <c r="E79" s="30">
         <f t="shared" si="1"/>
@@ -4135,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="30"/>
-      <c r="H79" s="34"/>
+      <c r="H79" s="37"/>
       <c r="I79" s="30"/>
       <c r="J79" s="30"/>
       <c r="K79" s="30"/>
@@ -4143,8 +5018,8 @@
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
       <c r="O79" s="30"/>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="35"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="36"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
@@ -4160,8 +5035,8 @@
       <c r="A80" s="30">
         <v>74.0</v>
       </c>
-      <c r="B80" s="36"/>
-      <c r="C80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="39"/>
       <c r="D80" s="33"/>
       <c r="E80" s="30">
         <f t="shared" si="1"/>
@@ -4176,12 +5051,12 @@
       <c r="I80" s="30"/>
       <c r="J80" s="30"/>
       <c r="K80" s="30"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
       <c r="N80" s="30"/>
       <c r="O80" s="30"/>
       <c r="P80" s="30"/>
-      <c r="Q80" s="35"/>
+      <c r="Q80" s="36"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
@@ -4197,8 +5072,8 @@
       <c r="A81" s="30">
         <v>75.0</v>
       </c>
-      <c r="B81" s="36"/>
-      <c r="C81" s="37"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="39"/>
       <c r="D81" s="33"/>
       <c r="E81" s="30">
         <f t="shared" si="1"/>
@@ -4208,8 +5083,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
       <c r="I81" s="30"/>
       <c r="J81" s="30"/>
       <c r="K81" s="30"/>
@@ -4217,8 +5092,8 @@
       <c r="M81" s="30"/>
       <c r="N81" s="30"/>
       <c r="O81" s="30"/>
-      <c r="P81" s="34"/>
-      <c r="Q81" s="35"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="36"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
@@ -4234,8 +5109,8 @@
       <c r="A82" s="30">
         <v>76.0</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="33"/>
       <c r="E82" s="30">
         <f t="shared" si="1"/>
@@ -4248,14 +5123,14 @@
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
       <c r="N82" s="30"/>
       <c r="O82" s="30"/>
       <c r="P82" s="30"/>
-      <c r="Q82" s="35"/>
+      <c r="Q82" s="36"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
@@ -4271,8 +5146,8 @@
       <c r="A83" s="30">
         <v>77.0</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="39"/>
       <c r="D83" s="33"/>
       <c r="E83" s="30">
         <f t="shared" si="1"/>
@@ -4285,14 +5160,14 @@
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
       <c r="I83" s="30"/>
-      <c r="J83" s="34"/>
+      <c r="J83" s="37"/>
       <c r="K83" s="30"/>
-      <c r="L83" s="34"/>
+      <c r="L83" s="37"/>
       <c r="M83" s="30"/>
       <c r="N83" s="30"/>
       <c r="O83" s="30"/>
       <c r="P83" s="30"/>
-      <c r="Q83" s="35"/>
+      <c r="Q83" s="36"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
@@ -4308,8 +5183,8 @@
       <c r="A84" s="30">
         <v>78.0</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="33"/>
       <c r="E84" s="30">
         <f t="shared" si="1"/>
@@ -4324,12 +5199,12 @@
       <c r="I84" s="30"/>
       <c r="J84" s="30"/>
       <c r="K84" s="30"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
       <c r="N84" s="30"/>
       <c r="O84" s="30"/>
       <c r="P84" s="30"/>
-      <c r="Q84" s="35"/>
+      <c r="Q84" s="36"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
@@ -4345,8 +5220,8 @@
       <c r="A85" s="30">
         <v>79.0</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="37"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="33"/>
       <c r="E85" s="30">
         <f t="shared" si="1"/>
@@ -4358,15 +5233,15 @@
       </c>
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
-      <c r="I85" s="34"/>
+      <c r="I85" s="37"/>
       <c r="J85" s="30"/>
       <c r="K85" s="30"/>
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
-      <c r="N85" s="34"/>
+      <c r="N85" s="37"/>
       <c r="O85" s="30"/>
       <c r="P85" s="30"/>
-      <c r="Q85" s="35"/>
+      <c r="Q85" s="36"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
@@ -4382,8 +5257,8 @@
       <c r="A86" s="30">
         <v>80.0</v>
       </c>
-      <c r="B86" s="36"/>
-      <c r="C86" s="37"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="39"/>
       <c r="D86" s="33"/>
       <c r="E86" s="30">
         <f t="shared" si="1"/>
@@ -4398,12 +5273,12 @@
       <c r="I86" s="30"/>
       <c r="J86" s="30"/>
       <c r="K86" s="30"/>
-      <c r="L86" s="34"/>
+      <c r="L86" s="37"/>
       <c r="M86" s="30"/>
-      <c r="N86" s="34"/>
+      <c r="N86" s="37"/>
       <c r="O86" s="30"/>
       <c r="P86" s="30"/>
-      <c r="Q86" s="35"/>
+      <c r="Q86" s="36"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
@@ -4419,8 +5294,8 @@
       <c r="A87" s="30">
         <v>81.0</v>
       </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
       <c r="D87" s="33"/>
       <c r="E87" s="30">
         <f t="shared" si="1"/>
@@ -4440,7 +5315,7 @@
       <c r="N87" s="33"/>
       <c r="O87" s="33"/>
       <c r="P87" s="33"/>
-      <c r="Q87" s="35"/>
+      <c r="Q87" s="36"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
@@ -4456,8 +5331,8 @@
       <c r="A88" s="30">
         <v>82.0</v>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
       <c r="D88" s="33"/>
       <c r="E88" s="30">
         <f t="shared" si="1"/>
@@ -4477,7 +5352,7 @@
       <c r="N88" s="33"/>
       <c r="O88" s="33"/>
       <c r="P88" s="33"/>
-      <c r="Q88" s="35"/>
+      <c r="Q88" s="36"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
@@ -4493,8 +5368,8 @@
       <c r="A89" s="30">
         <v>83.0</v>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="40"/>
       <c r="D89" s="33"/>
       <c r="E89" s="30">
         <f t="shared" si="1"/>
@@ -4514,7 +5389,7 @@
       <c r="N89" s="33"/>
       <c r="O89" s="33"/>
       <c r="P89" s="33"/>
-      <c r="Q89" s="35"/>
+      <c r="Q89" s="36"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
@@ -4530,8 +5405,8 @@
       <c r="A90" s="30">
         <v>84.0</v>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="40"/>
       <c r="D90" s="33"/>
       <c r="E90" s="30">
         <f t="shared" si="1"/>
@@ -4551,7 +5426,7 @@
       <c r="N90" s="33"/>
       <c r="O90" s="33"/>
       <c r="P90" s="33"/>
-      <c r="Q90" s="35"/>
+      <c r="Q90" s="36"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
@@ -4567,8 +5442,8 @@
       <c r="A91" s="30">
         <v>85.0</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="33"/>
       <c r="E91" s="30">
         <f t="shared" si="1"/>
@@ -4588,7 +5463,7 @@
       <c r="N91" s="33"/>
       <c r="O91" s="33"/>
       <c r="P91" s="33"/>
-      <c r="Q91" s="35"/>
+      <c r="Q91" s="36"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
@@ -4604,8 +5479,8 @@
       <c r="A92" s="30">
         <v>86.0</v>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="33"/>
       <c r="E92" s="30">
         <f t="shared" si="1"/>
@@ -4625,7 +5500,7 @@
       <c r="N92" s="33"/>
       <c r="O92" s="33"/>
       <c r="P92" s="33"/>
-      <c r="Q92" s="35"/>
+      <c r="Q92" s="36"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -4638,22 +5513,22 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
